--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,16 +9458,16 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>04/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9847,7 +9847,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -13831,7 +13831,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -4143,7 +4143,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,16 +9506,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/08/2022</t>
+          <t>23/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,16 +9554,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13975,7 +13975,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F284" t="n">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,16 +9602,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,16 +9650,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Segunda Ampliación Productiva Planta Verallia</t>
+          <t>Valles de Rengo III</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Verallia Chile S.A.</t>
+          <t>Inmobiliaria Club PY Catalina S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>110000</v>
+        <v>18520</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>07/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158580344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158560436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
+          <t>Segunda Ampliación Productiva Planta Verallia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,16 +482,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Verallia Chile S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>110000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158580344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valles de Rengo III</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,20 +530,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club PY Catalina S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18520</v>
+        <v>30</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31/01/2023</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158560436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valles de Rengo III</t>
+          <t>Segunda Ampliación Productiva Planta Verallia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria Club PY Catalina S.A.</t>
+          <t>Verallia Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18520</v>
+        <v>110000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158560436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158580344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Segunda Ampliación Productiva Planta Verallia</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Verallia Chile S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>110000</v>
+        <v>30</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158580344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
+          <t>Valles de Rengo III</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Inmobiliaria Club PY Catalina S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>18520</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>07/02/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158560436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,16 +9698,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>GR Pumalín SpA</t>
         </is>
       </c>
       <c r="F23" t="n">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,16 +9746,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9764,12 +9764,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ORION POWER S.A.</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F27" t="n">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/04/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,16 +9794,16 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,16 +9842,16 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9860,12 +9860,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/05/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -4479,7 +4479,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/08/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PSF Santa Isabel SpA,</t>
+          <t>PSF Santa Elizabeth SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
+          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,16 +9890,16 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>TRICAL SUDAMERICA S.A.</t>
+          <t>José Ramón Vega Artus</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9908,12 +9908,12 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para Purines, Criadero de Cerdos San José de Apalta. (e-seia)</t>
+          <t>AMPLIACIÓN EN LAS FAENAS DE TRANSVASE Y MEZCLA: CLOROPICRINA Y MONOBROMOMETANO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,16 +9938,16 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>José Ramón Vega Artus</t>
+          <t>TRICAL SUDAMERICA S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2169391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2161784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>38</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RILes para Vitivinícola Los Maitenes - Bodega Rengo (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad Vitivinícola y Comercial Los Maitenes Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>38</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">

--- a/data/Rengo.xlsx
+++ b/data/Rengo.xlsx
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F291" t="n">
